--- a/biology/Botanique/Liste_des_espèces_de_tulipe/Liste_des_espèces_de_tulipe.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_tulipe/Liste_des_espèces_de_tulipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_tulipe</t>
+          <t>Liste_des_espèces_de_tulipe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les différentes espèces de tulipe et ne doit pas être confondu avec liste des cultivars de tulipe.
-La première taxonomie des tulipes remonterait à De Reboul[1] en 1847.
-Un siècle plus tard, Hall proposa une nouvelle classification du genre Tulipa et en 1997, Van Raamsdonk et al.[2]  présenta une révision du genre, basée sur des critères morphologiques, cytogénétiques et des données de croisement et de distribution géographique. Suivant leur analyse, le genre Tulipa comporte 55 espèces distribuées en deux sous-genres. 
-D. Everet a publié en 2013 une monographie sur toutes les espèces connues[3]. GRIN[4] recense 85 espèces botaniques (avril 2014).
+La première taxonomie des tulipes remonterait à De Reboul en 1847.
+Un siècle plus tard, Hall proposa une nouvelle classification du genre Tulipa et en 1997, Van Raamsdonk et al.  présenta une révision du genre, basée sur des critères morphologiques, cytogénétiques et des données de croisement et de distribution géographique. Suivant leur analyse, le genre Tulipa comporte 55 espèces distribuées en deux sous-genres. 
+D. Everet a publié en 2013 une monographie sur toutes les espèces connues. GRIN recense 85 espèces botaniques (avril 2014).
 Tulipa gesneriana, la tulipe des jardins, est la plus cultivée. 
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_tulipe</t>
+          <t>Liste_des_espèces_de_tulipe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
